--- a/team_specific_matrix/Weber St._A.xlsx
+++ b/team_specific_matrix/Weber St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1822033898305085</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="C2">
-        <v>0.5805084745762712</v>
+        <v>0.6236559139784946</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01694915254237288</v>
+        <v>0.01433691756272401</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09745762711864407</v>
+        <v>0.0931899641577061</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1228813559322034</v>
+        <v>0.1075268817204301</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04054054054054054</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02027027027027027</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7635135135135135</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1756756756756757</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6153846153846154</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3076923076923077</v>
+        <v>0.2954545454545455</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.096045197740113</v>
+        <v>0.09004739336492891</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05084745762711865</v>
+        <v>0.05687203791469194</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2372881355932203</v>
+        <v>0.2464454976303317</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02824858757062147</v>
+        <v>0.02369668246445497</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1525423728813559</v>
+        <v>0.1706161137440758</v>
       </c>
       <c r="R6">
-        <v>0.07909604519774012</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="S6">
-        <v>0.3559322033898305</v>
+        <v>0.3364928909952606</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09859154929577464</v>
+        <v>0.1156462585034014</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02816901408450704</v>
+        <v>0.0272108843537415</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06338028169014084</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09154929577464789</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1338028169014084</v>
+        <v>0.1496598639455782</v>
       </c>
       <c r="R7">
-        <v>0.07042253521126761</v>
+        <v>0.07482993197278912</v>
       </c>
       <c r="S7">
-        <v>0.5140845070422535</v>
+        <v>0.4693877551020408</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09788359788359788</v>
+        <v>0.09832134292565947</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0291005291005291</v>
+        <v>0.02877697841726619</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07142857142857142</v>
+        <v>0.07434052757793765</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1031746031746032</v>
+        <v>0.09112709832134293</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01851851851851852</v>
+        <v>0.02158273381294964</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1613756613756614</v>
+        <v>0.1678657074340528</v>
       </c>
       <c r="R8">
-        <v>0.1005291005291005</v>
+        <v>0.1079136690647482</v>
       </c>
       <c r="S8">
-        <v>0.417989417989418</v>
+        <v>0.4100719424460432</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07142857142857142</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.006493506493506494</v>
+        <v>0.01863354037267081</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.05194805194805195</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1363636363636364</v>
+        <v>0.1180124223602484</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01298701298701299</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2337662337662338</v>
+        <v>0.2236024844720497</v>
       </c>
       <c r="R9">
-        <v>0.08441558441558442</v>
+        <v>0.09937888198757763</v>
       </c>
       <c r="S9">
-        <v>0.4025974025974026</v>
+        <v>0.3788819875776397</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1213389121338912</v>
+        <v>0.1212669683257919</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02510460251046025</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07845188284518828</v>
+        <v>0.0751131221719457</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08786610878661087</v>
+        <v>0.08054298642533937</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01464435146443515</v>
+        <v>0.01900452488687783</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2165271966527197</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="R10">
-        <v>0.102510460251046</v>
+        <v>0.09954751131221719</v>
       </c>
       <c r="S10">
-        <v>0.3535564853556485</v>
+        <v>0.3574660633484163</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1128205128205128</v>
+        <v>0.1125541125541126</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1230769230769231</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K11">
-        <v>0.1794871794871795</v>
+        <v>0.1991341991341991</v>
       </c>
       <c r="L11">
-        <v>0.5641025641025641</v>
+        <v>0.5367965367965368</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02051282051282051</v>
+        <v>0.008658008658008658</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8203125</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1484375</v>
+        <v>0.1825396825396825</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.0078125</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.0234375</v>
+        <v>0.007936507936507936</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7058823529411765</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2352941176470588</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01694915254237288</v>
+        <v>0.01913875598086124</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1807909604519774</v>
+        <v>0.1722488038277512</v>
       </c>
       <c r="I15">
-        <v>0.0847457627118644</v>
+        <v>0.07177033492822966</v>
       </c>
       <c r="J15">
-        <v>0.327683615819209</v>
+        <v>0.3301435406698565</v>
       </c>
       <c r="K15">
-        <v>0.1073446327683616</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005649717514124294</v>
+        <v>0.004784688995215311</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.05649717514124294</v>
+        <v>0.06698564593301436</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2203389830508475</v>
+        <v>0.2248803827751196</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2352941176470588</v>
+        <v>0.2421052631578947</v>
       </c>
       <c r="I16">
-        <v>0.05882352941176471</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="J16">
-        <v>0.4052287581699346</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="K16">
-        <v>0.05882352941176471</v>
+        <v>0.04736842105263158</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0261437908496732</v>
+        <v>0.03157894736842105</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07843137254901961</v>
+        <v>0.06315789473684211</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1372549019607843</v>
+        <v>0.1368421052631579</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01440922190201729</v>
+        <v>0.01466992665036675</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2161383285302594</v>
+        <v>0.2004889975550122</v>
       </c>
       <c r="I17">
-        <v>0.0893371757925072</v>
+        <v>0.08068459657701711</v>
       </c>
       <c r="J17">
-        <v>0.4380403458213257</v>
+        <v>0.449877750611247</v>
       </c>
       <c r="K17">
-        <v>0.08069164265129683</v>
+        <v>0.08312958435207823</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02305475504322766</v>
+        <v>0.019559902200489</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05187319884726225</v>
+        <v>0.05867970660146699</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08645533141210375</v>
+        <v>0.09290953545232274</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01734104046242774</v>
+        <v>0.02010050251256281</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2138728323699422</v>
+        <v>0.1909547738693467</v>
       </c>
       <c r="I18">
-        <v>0.1040462427745665</v>
+        <v>0.1105527638190955</v>
       </c>
       <c r="J18">
-        <v>0.4739884393063584</v>
+        <v>0.4623115577889447</v>
       </c>
       <c r="K18">
-        <v>0.05780346820809248</v>
+        <v>0.07035175879396985</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0115606936416185</v>
+        <v>0.01005025125628141</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05202312138728324</v>
+        <v>0.05527638190954774</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.06936416184971098</v>
+        <v>0.08040201005025126</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02004219409282701</v>
+        <v>0.0228789323164919</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2088607594936709</v>
+        <v>0.21163012392755</v>
       </c>
       <c r="I19">
-        <v>0.08122362869198312</v>
+        <v>0.07816968541468065</v>
       </c>
       <c r="J19">
-        <v>0.3818565400843882</v>
+        <v>0.3860819828408008</v>
       </c>
       <c r="K19">
-        <v>0.0949367088607595</v>
+        <v>0.09914204003813155</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02109704641350211</v>
+        <v>0.02383222116301239</v>
       </c>
       <c r="N19">
-        <v>0.001054852320675105</v>
+        <v>0.0009532888465204957</v>
       </c>
       <c r="O19">
-        <v>0.08227848101265822</v>
+        <v>0.08579599618684461</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1086497890295359</v>
+        <v>0.09151572926596759</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Weber St._A.xlsx
+++ b/team_specific_matrix/Weber St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1612903225806452</v>
+        <v>0.1639871382636656</v>
       </c>
       <c r="C2">
-        <v>0.6236559139784946</v>
+        <v>0.6237942122186495</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01433691756272401</v>
+        <v>0.01286173633440514</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0931899641577061</v>
+        <v>0.0932475884244373</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1075268817204301</v>
+        <v>0.1061093247588424</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03225806451612903</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02150537634408602</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7849462365591398</v>
+        <v>0.7864077669902912</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1612903225806452</v>
+        <v>0.1650485436893204</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06818181818181818</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6363636363636364</v>
+        <v>0.6226415094339622</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2954545454545455</v>
+        <v>0.3018867924528302</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09004739336492891</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05687203791469194</v>
+        <v>0.05833333333333333</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2464454976303317</v>
+        <v>0.2625</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02369668246445497</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1706161137440758</v>
+        <v>0.1833333333333333</v>
       </c>
       <c r="R6">
-        <v>0.07582938388625593</v>
+        <v>0.07083333333333333</v>
       </c>
       <c r="S6">
-        <v>0.3364928909952606</v>
+        <v>0.3208333333333334</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1156462585034014</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0272108843537415</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.06122448979591837</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1020408163265306</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1496598639455782</v>
+        <v>0.1635220125786163</v>
       </c>
       <c r="R7">
-        <v>0.07482993197278912</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="S7">
-        <v>0.4693877551020408</v>
+        <v>0.4465408805031447</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09832134292565947</v>
+        <v>0.105708245243129</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02877697841726619</v>
+        <v>0.02959830866807611</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07434052757793765</v>
+        <v>0.07610993657505286</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09112709832134293</v>
+        <v>0.08456659619450317</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02158273381294964</v>
+        <v>0.02536997885835095</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1678657074340528</v>
+        <v>0.1670190274841438</v>
       </c>
       <c r="R8">
-        <v>0.1079136690647482</v>
+        <v>0.105708245243129</v>
       </c>
       <c r="S8">
-        <v>0.4100719424460432</v>
+        <v>0.4059196617336152</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09937888198757763</v>
+        <v>0.09836065573770492</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01863354037267081</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04968944099378882</v>
+        <v>0.06010928961748634</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1180124223602484</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0124223602484472</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2236024844720497</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="R9">
-        <v>0.09937888198757763</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="S9">
-        <v>0.3788819875776397</v>
+        <v>0.3879781420765027</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1212669683257919</v>
+        <v>0.1183574879227053</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02352941176470588</v>
+        <v>0.0249597423510467</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0751131221719457</v>
+        <v>0.07326892109500806</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08054298642533937</v>
+        <v>0.08454106280193237</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01900452488687783</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2235294117647059</v>
+        <v>0.2230273752012882</v>
       </c>
       <c r="R10">
-        <v>0.09954751131221719</v>
+        <v>0.0966183574879227</v>
       </c>
       <c r="S10">
-        <v>0.3574660633484163</v>
+        <v>0.3599033816425121</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1125541125541126</v>
+        <v>0.1003861003861004</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="K11">
-        <v>0.1991341991341991</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="L11">
-        <v>0.5367965367965368</v>
+        <v>0.5598455598455598</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.008658008658008658</v>
+        <v>0.007722007722007722</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.8095238095238095</v>
+        <v>0.7702702702702703</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1825396825396825</v>
+        <v>0.2027027027027027</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.007936507936507936</v>
+        <v>0.02027027027027027</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7142857142857143</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2857142857142857</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01913875598086124</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1722488038277512</v>
+        <v>0.1822033898305085</v>
       </c>
       <c r="I15">
-        <v>0.07177033492822966</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="J15">
-        <v>0.3301435406698565</v>
+        <v>0.326271186440678</v>
       </c>
       <c r="K15">
-        <v>0.1100478468899522</v>
+        <v>0.1059322033898305</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.004784688995215311</v>
+        <v>0.00423728813559322</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06698564593301436</v>
+        <v>0.0635593220338983</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2248803827751196</v>
+        <v>0.2372881355932203</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.005263157894736842</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2421052631578947</v>
+        <v>0.2289719626168224</v>
       </c>
       <c r="I16">
-        <v>0.05263157894736842</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="J16">
-        <v>0.4210526315789473</v>
+        <v>0.4299065420560748</v>
       </c>
       <c r="K16">
-        <v>0.04736842105263158</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03157894736842105</v>
+        <v>0.03271028037383177</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06315789473684211</v>
+        <v>0.06542056074766354</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1368421052631579</v>
+        <v>0.1401869158878505</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01466992665036675</v>
+        <v>0.02164502164502164</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2004889975550122</v>
+        <v>0.1991341991341991</v>
       </c>
       <c r="I17">
-        <v>0.08068459657701711</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="J17">
-        <v>0.449877750611247</v>
+        <v>0.4415584415584415</v>
       </c>
       <c r="K17">
-        <v>0.08312958435207823</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.019559902200489</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.05867970660146699</v>
+        <v>0.06277056277056277</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.09290953545232274</v>
+        <v>0.08441558441558442</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02010050251256281</v>
+        <v>0.0182648401826484</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1909547738693467</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="I18">
-        <v>0.1105527638190955</v>
+        <v>0.1050228310502283</v>
       </c>
       <c r="J18">
-        <v>0.4623115577889447</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="K18">
-        <v>0.07035175879396985</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01005025125628141</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.05527638190954774</v>
+        <v>0.0502283105022831</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08040201005025126</v>
+        <v>0.091324200913242</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0228789323164919</v>
+        <v>0.02288135593220339</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.21163012392755</v>
+        <v>0.2161016949152542</v>
       </c>
       <c r="I19">
-        <v>0.07816968541468065</v>
+        <v>0.08050847457627118</v>
       </c>
       <c r="J19">
-        <v>0.3860819828408008</v>
+        <v>0.3838983050847458</v>
       </c>
       <c r="K19">
-        <v>0.09914204003813155</v>
+        <v>0.09915254237288136</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02383222116301239</v>
+        <v>0.0211864406779661</v>
       </c>
       <c r="N19">
-        <v>0.0009532888465204957</v>
+        <v>0.000847457627118644</v>
       </c>
       <c r="O19">
-        <v>0.08579599618684461</v>
+        <v>0.08559322033898305</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.09151572926596759</v>
+        <v>0.08983050847457627</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Weber St._A.xlsx
+++ b/team_specific_matrix/Weber St._A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1639871382636656</v>
+        <v>0.1645569620253164</v>
       </c>
       <c r="C2">
-        <v>0.6237942122186495</v>
+        <v>0.620253164556962</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01286173633440514</v>
+        <v>0.01265822784810127</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.0932475884244373</v>
+        <v>0.09810126582278481</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1061093247588424</v>
+        <v>0.1044303797468354</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02912621359223301</v>
+        <v>0.02884615384615385</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01941747572815534</v>
+        <v>0.01923076923076923</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7864077669902912</v>
+        <v>0.7884615384615384</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1650485436893204</v>
+        <v>0.1634615384615385</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07547169811320754</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6226415094339622</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3018867924528302</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08333333333333333</v>
+        <v>0.08502024291497975</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05833333333333333</v>
+        <v>0.05668016194331984</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2625</v>
+        <v>0.2591093117408907</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02083333333333333</v>
+        <v>0.02024291497975709</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1833333333333333</v>
+        <v>0.1862348178137652</v>
       </c>
       <c r="R6">
-        <v>0.07083333333333333</v>
+        <v>0.0728744939271255</v>
       </c>
       <c r="S6">
-        <v>0.3208333333333334</v>
+        <v>0.319838056680162</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.119496855345912</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03144654088050314</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05660377358490566</v>
+        <v>0.06172839506172839</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1069182389937107</v>
+        <v>0.1049382716049383</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1635220125786163</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R7">
-        <v>0.07547169811320754</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="S7">
-        <v>0.4465408805031447</v>
+        <v>0.4444444444444444</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.105708245243129</v>
+        <v>0.102880658436214</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02959830866807611</v>
+        <v>0.02880658436213992</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.07610993657505286</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08456659619450317</v>
+        <v>0.08436213991769548</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02536997885835095</v>
+        <v>0.02469135802469136</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1670190274841438</v>
+        <v>0.1707818930041152</v>
       </c>
       <c r="R8">
-        <v>0.105708245243129</v>
+        <v>0.102880658436214</v>
       </c>
       <c r="S8">
-        <v>0.4059196617336152</v>
+        <v>0.411522633744856</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09836065573770492</v>
+        <v>0.1020408163265306</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02185792349726776</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06010928961748634</v>
+        <v>0.06122448979591837</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1038251366120219</v>
+        <v>0.1122448979591837</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01092896174863388</v>
+        <v>0.01020408163265306</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2131147540983606</v>
+        <v>0.2091836734693878</v>
       </c>
       <c r="R9">
-        <v>0.1038251366120219</v>
+        <v>0.09693877551020408</v>
       </c>
       <c r="S9">
-        <v>0.3879781420765027</v>
+        <v>0.3877551020408163</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1183574879227053</v>
+        <v>0.1153546375681995</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0249597423510467</v>
+        <v>0.02494154325798909</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07326892109500806</v>
+        <v>0.0740452065471551</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08454106280193237</v>
+        <v>0.08417770849571317</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01932367149758454</v>
+        <v>0.01948558067030397</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2230273752012882</v>
+        <v>0.2244738893219018</v>
       </c>
       <c r="R10">
-        <v>0.0966183574879227</v>
+        <v>0.09586905689789556</v>
       </c>
       <c r="S10">
-        <v>0.3599033816425121</v>
+        <v>0.3616523772408418</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1003861003861004</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1428571428571428</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="K11">
-        <v>0.1891891891891892</v>
+        <v>0.1893939393939394</v>
       </c>
       <c r="L11">
-        <v>0.5598455598455598</v>
+        <v>0.5568181818181818</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.007722007722007722</v>
+        <v>0.007575757575757576</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7702702702702703</v>
+        <v>0.7733333333333333</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2027027027027027</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.006756756756756757</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02027027027027027</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7027027027027027</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2972972972972973</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01694915254237288</v>
+        <v>0.01626016260162602</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1822033898305085</v>
+        <v>0.1747967479674797</v>
       </c>
       <c r="I15">
-        <v>0.0635593220338983</v>
+        <v>0.06910569105691057</v>
       </c>
       <c r="J15">
-        <v>0.326271186440678</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K15">
-        <v>0.1059322033898305</v>
+        <v>0.1056910569105691</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00423728813559322</v>
+        <v>0.004065040650406504</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0635593220338983</v>
+        <v>0.06097560975609756</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2372881355932203</v>
+        <v>0.2357723577235772</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009345794392523364</v>
+        <v>0.009216589861751152</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2289719626168224</v>
+        <v>0.2304147465437788</v>
       </c>
       <c r="I16">
-        <v>0.0514018691588785</v>
+        <v>0.05069124423963134</v>
       </c>
       <c r="J16">
-        <v>0.4299065420560748</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K16">
-        <v>0.04205607476635514</v>
+        <v>0.04147465437788019</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03271028037383177</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06542056074766354</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1401869158878505</v>
+        <v>0.1428571428571428</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02164502164502164</v>
+        <v>0.02070393374741201</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1991341991341991</v>
+        <v>0.1966873706004141</v>
       </c>
       <c r="I17">
-        <v>0.08658008658008658</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="J17">
-        <v>0.4415584415584415</v>
+        <v>0.443064182194617</v>
       </c>
       <c r="K17">
-        <v>0.08658008658008658</v>
+        <v>0.08281573498964803</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01731601731601732</v>
+        <v>0.01656314699792961</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06277056277056277</v>
+        <v>0.06625258799171843</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08441558441558442</v>
+        <v>0.08074534161490683</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0182648401826484</v>
+        <v>0.0179372197309417</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1917808219178082</v>
+        <v>0.1883408071748879</v>
       </c>
       <c r="I18">
-        <v>0.1050228310502283</v>
+        <v>0.1031390134529148</v>
       </c>
       <c r="J18">
-        <v>0.4520547945205479</v>
+        <v>0.4573991031390134</v>
       </c>
       <c r="K18">
-        <v>0.0776255707762557</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0136986301369863</v>
+        <v>0.01345291479820628</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0502283105022831</v>
+        <v>0.04932735426008968</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.091324200913242</v>
+        <v>0.09417040358744394</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02288135593220339</v>
+        <v>0.02295081967213115</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2161016949152542</v>
+        <v>0.2180327868852459</v>
       </c>
       <c r="I19">
-        <v>0.08050847457627118</v>
+        <v>0.08278688524590164</v>
       </c>
       <c r="J19">
-        <v>0.3838983050847458</v>
+        <v>0.3819672131147541</v>
       </c>
       <c r="K19">
-        <v>0.09915254237288136</v>
+        <v>0.09754098360655737</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0211864406779661</v>
+        <v>0.02131147540983606</v>
       </c>
       <c r="N19">
-        <v>0.000847457627118644</v>
+        <v>0.000819672131147541</v>
       </c>
       <c r="O19">
-        <v>0.08559322033898305</v>
+        <v>0.0860655737704918</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08983050847457627</v>
+        <v>0.08852459016393442</v>
       </c>
     </row>
   </sheetData>
